--- a/logic/test/data/_input/05_model_parameters/parameters_diffuus.xlsx
+++ b/logic/test/data/_input/05_model_parameters/parameters_diffuus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Unit_RMA\MAP\_Modellen\E-MAP\05_Runs\_input\05_model_parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RMABuild\emap\data\05_model_parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F12B80-9A5A-49AB-B3CD-64F2616BA5D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCF8695-813F-4461-8D0C-B76302DDD333}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30270" yWindow="2355" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{81CCF15B-D5D5-4BBD-A53A-9C36DA8D55DF}"/>
+    <workbookView xWindow="3590" yWindow="2660" windowWidth="28100" windowHeight="15910" xr2:uid="{81CCF15B-D5D5-4BBD-A53A-9C36DA8D55DF}"/>
   </bookViews>
   <sheets>
     <sheet name="nfr" sheetId="3" r:id="rId1"/>
@@ -38,14 +38,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="312">
   <si>
     <t>tb</t>
   </si>
   <si>
-    <t>NFR Code</t>
-  </si>
-  <si>
     <t>1A1a</t>
   </si>
   <si>
@@ -428,9 +425,6 @@
   </si>
   <si>
     <t>MEMO ITEMS - NOT TO BE INCLUDED IN NATIONAL TOTALS</t>
-  </si>
-  <si>
-    <t>GNFR sector</t>
   </si>
   <si>
     <t>A_PublicPower</t>
@@ -907,9 +901,6 @@
     <t>GNFR</t>
   </si>
   <si>
-    <t>SNAP sector</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -983,6 +974,9 @@
   </si>
   <si>
     <t>niet gekend</t>
+  </si>
+  <si>
+    <t>Sector</t>
   </si>
 </sst>
 </file>
@@ -1384,47 +1378,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC74C374-F1C5-4836-A84C-70B0754CEAF2}">
   <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="111.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.7265625" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" customWidth="1"/>
+    <col min="3" max="3" width="111.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>311</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D2">
         <v>8</v>
@@ -1439,15 +1435,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D3" s="5">
         <v>1.5</v>
@@ -1462,15 +1458,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D4" s="5">
         <v>1.5</v>
@@ -1485,15 +1481,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D5" s="5">
         <v>1.5</v>
@@ -1508,15 +1504,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D6" s="5">
         <v>1.5</v>
@@ -1531,15 +1527,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D7" s="5">
         <v>1.5</v>
@@ -1554,15 +1550,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D8" s="5">
         <v>1.5</v>
@@ -1577,15 +1573,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D9" s="5">
         <v>1.5</v>
@@ -1600,15 +1596,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D10" s="5">
         <v>1.5</v>
@@ -1623,15 +1619,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D11" s="5">
         <v>1.5</v>
@@ -1646,15 +1642,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D12" s="5">
         <v>1.5</v>
@@ -1669,15 +1665,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D13" s="5">
         <v>1.5</v>
@@ -1692,15 +1688,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D14" s="5">
         <v>1.5</v>
@@ -1715,15 +1711,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D15" s="5">
         <v>1.5</v>
@@ -1738,15 +1734,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D16" s="5">
         <v>1.5</v>
@@ -1761,15 +1757,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D17" s="5">
         <v>1.5</v>
@@ -1784,15 +1780,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D18" s="5">
         <v>1.5</v>
@@ -1807,15 +1803,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D19" s="5">
         <v>1.5</v>
@@ -1830,15 +1826,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D20" s="5">
         <v>1.5</v>
@@ -1853,15 +1849,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D21" s="5">
         <v>1.5</v>
@@ -1876,15 +1872,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D22" s="5">
         <v>1.5</v>
@@ -1899,15 +1895,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D23" s="5">
         <v>1.5</v>
@@ -1922,15 +1918,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D24" s="5">
         <v>1.5</v>
@@ -1945,15 +1941,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D25" s="5">
         <v>1.5</v>
@@ -1968,15 +1964,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D26" s="5">
         <v>1.5</v>
@@ -1991,15 +1987,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D27" s="5">
         <v>1.5</v>
@@ -2014,15 +2010,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D28" s="5">
         <v>1.5</v>
@@ -2037,15 +2033,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D29" s="5">
         <v>1.5</v>
@@ -2060,15 +2056,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D30" s="5">
         <v>1.5</v>
@@ -2083,15 +2079,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D31" s="5">
         <v>1.5</v>
@@ -2106,15 +2102,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D32" s="5">
         <v>1.5</v>
@@ -2129,15 +2125,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D33" s="5">
         <v>1.5</v>
@@ -2152,15 +2148,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D34" s="5">
         <v>1.5</v>
@@ -2175,15 +2171,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D35" s="5">
         <v>1.5</v>
@@ -2198,15 +2194,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D36" s="5">
         <v>1.5</v>
@@ -2221,15 +2217,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D37" s="5">
         <v>1.5</v>
@@ -2244,15 +2240,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D38" s="5">
         <v>1.5</v>
@@ -2267,15 +2263,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D39" s="5">
         <v>1.5</v>
@@ -2290,15 +2286,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D40" s="5">
         <v>1.5</v>
@@ -2313,15 +2309,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D41" s="5">
         <v>1.5</v>
@@ -2336,15 +2332,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D42" s="5">
         <v>1.5</v>
@@ -2359,15 +2355,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C43" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D43" s="5">
         <v>1.5</v>
@@ -2382,15 +2378,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D44" s="5">
         <v>1.5</v>
@@ -2405,15 +2401,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D45" s="5">
         <v>1.5</v>
@@ -2428,15 +2424,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2451,15 +2447,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2474,15 +2470,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C48" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2497,15 +2493,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C49" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2520,15 +2516,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C50" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D50" s="5">
         <v>2.38</v>
@@ -2543,15 +2539,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C51" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D51" s="5">
         <v>2.38</v>
@@ -2566,15 +2562,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C52" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D52" s="5">
         <v>2.38</v>
@@ -2589,15 +2585,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D53" s="5">
         <v>2.38</v>
@@ -2612,15 +2608,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C54" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D54" s="5">
         <v>2.38</v>
@@ -2635,15 +2631,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C55" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D55" s="5">
         <v>2.38</v>
@@ -2658,15 +2654,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C56" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D56" s="5">
         <v>2.38</v>
@@ -2681,15 +2677,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C57" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D57" s="5">
         <v>2.38</v>
@@ -2704,15 +2700,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C58" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D58" s="5">
         <v>2.38</v>
@@ -2727,15 +2723,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C59" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D59" s="5">
         <v>2.38</v>
@@ -2750,15 +2746,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C60" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D60" s="5">
         <v>2.38</v>
@@ -2773,15 +2769,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C61" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D61" s="5">
         <v>2.38</v>
@@ -2796,15 +2792,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C62" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D62" s="5">
         <v>2.38</v>
@@ -2819,15 +2815,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D63" s="5">
         <v>2.38</v>
@@ -2842,15 +2838,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C64" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D64" s="5">
         <v>2.38</v>
@@ -2865,15 +2861,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C65" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D65" s="5">
         <v>2.38</v>
@@ -2888,15 +2884,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C66" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D66" s="5">
         <v>2.38</v>
@@ -2911,15 +2907,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2934,15 +2930,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2957,15 +2953,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2980,15 +2976,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C70" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -3003,15 +2999,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C71" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -3026,15 +3022,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C72" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -3049,15 +3045,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C73" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -3072,15 +3068,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C74" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D74" s="5">
         <v>0</v>
@@ -3095,15 +3091,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C75" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D75" s="5">
         <v>0</v>
@@ -3118,15 +3114,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D76" s="5">
         <v>0</v>
@@ -3141,15 +3137,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C77" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D77" s="5">
         <v>0</v>
@@ -3164,15 +3160,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C78" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D78" s="5">
         <v>0</v>
@@ -3187,15 +3183,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C79" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D79" s="5">
         <v>0</v>
@@ -3210,15 +3206,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B80" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C80" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D80" s="5">
         <v>0</v>
@@ -3233,15 +3229,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B81" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C81" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D81" s="5">
         <v>0</v>
@@ -3256,15 +3252,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C82" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D82" s="5">
         <v>0</v>
@@ -3279,15 +3275,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C83" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D83" s="5">
         <v>0</v>
@@ -3302,15 +3298,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C84" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D84" s="5">
         <v>0</v>
@@ -3325,15 +3321,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C85" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D85" s="5">
         <v>0</v>
@@ -3348,15 +3344,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B86" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C86" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D86" s="5">
         <v>0</v>
@@ -3371,15 +3367,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B87" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C87" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D87" s="5">
         <v>2.5</v>
@@ -3394,15 +3390,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B88" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C88" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D88" s="5">
         <v>2.5</v>
@@ -3417,15 +3413,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B89" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C89" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D89" s="5">
         <v>2.5</v>
@@ -3440,15 +3436,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B90" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C90" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D90" s="5">
         <v>2.5</v>
@@ -3463,15 +3459,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B91" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C91" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D91" s="5">
         <v>2.5</v>
@@ -3486,15 +3482,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B92" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C92" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D92" s="5">
         <v>2.5</v>
@@ -3509,15 +3505,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B93" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C93" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D93" s="5">
         <v>2.5</v>
@@ -3532,15 +3528,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B94" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C94" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D94" s="5">
         <v>2.5</v>
@@ -3555,15 +3551,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C95" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D95" s="5">
         <v>2.5</v>
@@ -3578,15 +3574,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B96" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C96" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D96" s="5">
         <v>2.5</v>
@@ -3601,15 +3597,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B97" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C97" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D97" s="5">
         <v>2.5</v>
@@ -3624,15 +3620,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B98" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C98" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D98" s="5">
         <v>2.5</v>
@@ -3647,15 +3643,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B99" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C99" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D99" s="5">
         <v>2.5</v>
@@ -3670,15 +3666,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B100" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C100" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D100" s="5">
         <v>2.5</v>
@@ -3693,15 +3689,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B101" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C101" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D101" s="5">
         <v>2.5</v>
@@ -3716,613 +3712,613 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
+        <v>139</v>
+      </c>
+      <c r="B102" t="s">
+        <v>86</v>
+      </c>
+      <c r="C102" t="s">
+        <v>243</v>
+      </c>
+      <c r="D102" s="5">
+        <v>0</v>
+      </c>
+      <c r="E102" s="5">
+        <v>0</v>
+      </c>
+      <c r="F102" s="5">
+        <v>0</v>
+      </c>
+      <c r="G102" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>139</v>
+      </c>
+      <c r="B103" t="s">
+        <v>87</v>
+      </c>
+      <c r="C103" t="s">
+        <v>244</v>
+      </c>
+      <c r="D103" s="5">
+        <v>0</v>
+      </c>
+      <c r="E103" s="5">
+        <v>0</v>
+      </c>
+      <c r="F103" s="5">
+        <v>0</v>
+      </c>
+      <c r="G103" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>139</v>
+      </c>
+      <c r="B104" t="s">
+        <v>88</v>
+      </c>
+      <c r="C104" t="s">
+        <v>245</v>
+      </c>
+      <c r="D104" s="5">
+        <v>0</v>
+      </c>
+      <c r="E104" s="5">
+        <v>0</v>
+      </c>
+      <c r="F104" s="5">
+        <v>0</v>
+      </c>
+      <c r="G104" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>139</v>
+      </c>
+      <c r="B105" t="s">
+        <v>89</v>
+      </c>
+      <c r="C105" t="s">
+        <v>246</v>
+      </c>
+      <c r="D105" s="5">
+        <v>0</v>
+      </c>
+      <c r="E105" s="5">
+        <v>0</v>
+      </c>
+      <c r="F105" s="5">
+        <v>0</v>
+      </c>
+      <c r="G105" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>139</v>
+      </c>
+      <c r="B106" t="s">
+        <v>90</v>
+      </c>
+      <c r="C106" t="s">
+        <v>247</v>
+      </c>
+      <c r="D106" s="5">
+        <v>0</v>
+      </c>
+      <c r="E106" s="5">
+        <v>0</v>
+      </c>
+      <c r="F106" s="5">
+        <v>0</v>
+      </c>
+      <c r="G106" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>139</v>
+      </c>
+      <c r="B107" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" t="s">
+        <v>248</v>
+      </c>
+      <c r="D107" s="5">
+        <v>0</v>
+      </c>
+      <c r="E107" s="5">
+        <v>0</v>
+      </c>
+      <c r="F107" s="5">
+        <v>0</v>
+      </c>
+      <c r="G107" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>139</v>
+      </c>
+      <c r="B108" t="s">
+        <v>92</v>
+      </c>
+      <c r="C108" t="s">
+        <v>249</v>
+      </c>
+      <c r="D108" s="5">
+        <v>0</v>
+      </c>
+      <c r="E108" s="5">
+        <v>0</v>
+      </c>
+      <c r="F108" s="5">
+        <v>0</v>
+      </c>
+      <c r="G108" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>139</v>
+      </c>
+      <c r="B109" t="s">
+        <v>93</v>
+      </c>
+      <c r="C109" t="s">
+        <v>250</v>
+      </c>
+      <c r="D109" s="5">
+        <v>0</v>
+      </c>
+      <c r="E109" s="5">
+        <v>0</v>
+      </c>
+      <c r="F109" s="5">
+        <v>0</v>
+      </c>
+      <c r="G109" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>139</v>
+      </c>
+      <c r="B110" t="s">
+        <v>94</v>
+      </c>
+      <c r="C110" t="s">
+        <v>251</v>
+      </c>
+      <c r="D110" s="5">
+        <v>0</v>
+      </c>
+      <c r="E110" s="5">
+        <v>0</v>
+      </c>
+      <c r="F110" s="5">
+        <v>0</v>
+      </c>
+      <c r="G110" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>139</v>
+      </c>
+      <c r="B111" t="s">
+        <v>95</v>
+      </c>
+      <c r="C111" t="s">
+        <v>252</v>
+      </c>
+      <c r="D111" s="5">
+        <v>0</v>
+      </c>
+      <c r="E111" s="5">
+        <v>0</v>
+      </c>
+      <c r="F111" s="5">
+        <v>0</v>
+      </c>
+      <c r="G111" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>139</v>
+      </c>
+      <c r="B112" t="s">
+        <v>96</v>
+      </c>
+      <c r="C112" t="s">
+        <v>253</v>
+      </c>
+      <c r="D112" s="5">
+        <v>0</v>
+      </c>
+      <c r="E112" s="5">
+        <v>0</v>
+      </c>
+      <c r="F112" s="5">
+        <v>0</v>
+      </c>
+      <c r="G112" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>139</v>
+      </c>
+      <c r="B113" t="s">
+        <v>97</v>
+      </c>
+      <c r="C113" t="s">
+        <v>254</v>
+      </c>
+      <c r="D113" s="5">
+        <v>0</v>
+      </c>
+      <c r="E113" s="5">
+        <v>0</v>
+      </c>
+      <c r="F113" s="5">
+        <v>0</v>
+      </c>
+      <c r="G113" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>139</v>
+      </c>
+      <c r="B114" t="s">
+        <v>98</v>
+      </c>
+      <c r="C114" t="s">
+        <v>255</v>
+      </c>
+      <c r="D114" s="5">
+        <v>0</v>
+      </c>
+      <c r="E114" s="5">
+        <v>0</v>
+      </c>
+      <c r="F114" s="5">
+        <v>0</v>
+      </c>
+      <c r="G114" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>140</v>
+      </c>
+      <c r="B115" t="s">
+        <v>99</v>
+      </c>
+      <c r="C115" t="s">
+        <v>256</v>
+      </c>
+      <c r="D115" s="5">
+        <v>0</v>
+      </c>
+      <c r="E115" s="5">
+        <v>0</v>
+      </c>
+      <c r="F115" s="5">
+        <v>0</v>
+      </c>
+      <c r="G115" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>140</v>
+      </c>
+      <c r="B116" t="s">
+        <v>100</v>
+      </c>
+      <c r="C116" t="s">
+        <v>257</v>
+      </c>
+      <c r="D116" s="5">
+        <v>0</v>
+      </c>
+      <c r="E116" s="5">
+        <v>0</v>
+      </c>
+      <c r="F116" s="5">
+        <v>0</v>
+      </c>
+      <c r="G116" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>140</v>
+      </c>
+      <c r="B117" t="s">
+        <v>101</v>
+      </c>
+      <c r="C117" t="s">
+        <v>258</v>
+      </c>
+      <c r="D117" s="5">
+        <v>0</v>
+      </c>
+      <c r="E117" s="5">
+        <v>0</v>
+      </c>
+      <c r="F117" s="5">
+        <v>0</v>
+      </c>
+      <c r="G117" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>140</v>
+      </c>
+      <c r="B118" t="s">
+        <v>102</v>
+      </c>
+      <c r="C118" t="s">
+        <v>259</v>
+      </c>
+      <c r="D118" s="5">
+        <v>0</v>
+      </c>
+      <c r="E118" s="5">
+        <v>0</v>
+      </c>
+      <c r="F118" s="5">
+        <v>0</v>
+      </c>
+      <c r="G118" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>140</v>
+      </c>
+      <c r="B119" t="s">
+        <v>103</v>
+      </c>
+      <c r="C119" t="s">
+        <v>260</v>
+      </c>
+      <c r="D119" s="5">
+        <v>0</v>
+      </c>
+      <c r="E119" s="5">
+        <v>0</v>
+      </c>
+      <c r="F119" s="5">
+        <v>0</v>
+      </c>
+      <c r="G119" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>140</v>
+      </c>
+      <c r="B120" t="s">
+        <v>104</v>
+      </c>
+      <c r="C120" t="s">
+        <v>261</v>
+      </c>
+      <c r="D120" s="5">
+        <v>0</v>
+      </c>
+      <c r="E120" s="5">
+        <v>0</v>
+      </c>
+      <c r="F120" s="5">
+        <v>0</v>
+      </c>
+      <c r="G120" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>140</v>
+      </c>
+      <c r="B121" t="s">
+        <v>105</v>
+      </c>
+      <c r="C121" t="s">
+        <v>262</v>
+      </c>
+      <c r="D121" s="5">
+        <v>0</v>
+      </c>
+      <c r="E121" s="5">
+        <v>0</v>
+      </c>
+      <c r="F121" s="5">
+        <v>0</v>
+      </c>
+      <c r="G121" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>140</v>
+      </c>
+      <c r="B122" t="s">
+        <v>106</v>
+      </c>
+      <c r="C122" t="s">
+        <v>263</v>
+      </c>
+      <c r="D122" s="5">
+        <v>0</v>
+      </c>
+      <c r="E122" s="5">
+        <v>0</v>
+      </c>
+      <c r="F122" s="5">
+        <v>0</v>
+      </c>
+      <c r="G122" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>140</v>
+      </c>
+      <c r="B123" t="s">
+        <v>107</v>
+      </c>
+      <c r="C123" t="s">
+        <v>264</v>
+      </c>
+      <c r="D123" s="5">
+        <v>0</v>
+      </c>
+      <c r="E123" s="5">
+        <v>0</v>
+      </c>
+      <c r="F123" s="5">
+        <v>0</v>
+      </c>
+      <c r="G123" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>140</v>
+      </c>
+      <c r="B124" t="s">
+        <v>108</v>
+      </c>
+      <c r="C124" t="s">
+        <v>265</v>
+      </c>
+      <c r="D124" s="5">
+        <v>0</v>
+      </c>
+      <c r="E124" s="5">
+        <v>0</v>
+      </c>
+      <c r="F124" s="5">
+        <v>0</v>
+      </c>
+      <c r="G124" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>140</v>
+      </c>
+      <c r="B125" t="s">
+        <v>109</v>
+      </c>
+      <c r="C125" t="s">
+        <v>266</v>
+      </c>
+      <c r="D125" s="5">
+        <v>0</v>
+      </c>
+      <c r="E125" s="5">
+        <v>0</v>
+      </c>
+      <c r="F125" s="5">
+        <v>0</v>
+      </c>
+      <c r="G125" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>140</v>
+      </c>
+      <c r="B126" t="s">
+        <v>110</v>
+      </c>
+      <c r="C126" t="s">
+        <v>267</v>
+      </c>
+      <c r="D126" s="5">
+        <v>0</v>
+      </c>
+      <c r="E126" s="5">
+        <v>0</v>
+      </c>
+      <c r="F126" s="5">
+        <v>0</v>
+      </c>
+      <c r="G126" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>140</v>
+      </c>
+      <c r="B127" t="s">
+        <v>111</v>
+      </c>
+      <c r="C127" t="s">
+        <v>268</v>
+      </c>
+      <c r="D127" s="5">
+        <v>0</v>
+      </c>
+      <c r="E127" s="5">
+        <v>0</v>
+      </c>
+      <c r="F127" s="5">
+        <v>0</v>
+      </c>
+      <c r="G127" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
         <v>141</v>
       </c>
-      <c r="B102" t="s">
-        <v>87</v>
-      </c>
-      <c r="C102" t="s">
-        <v>245</v>
-      </c>
-      <c r="D102" s="5">
-        <v>0</v>
-      </c>
-      <c r="E102" s="5">
-        <v>0</v>
-      </c>
-      <c r="F102" s="5">
-        <v>0</v>
-      </c>
-      <c r="G102" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>141</v>
-      </c>
-      <c r="B103" t="s">
-        <v>88</v>
-      </c>
-      <c r="C103" t="s">
-        <v>246</v>
-      </c>
-      <c r="D103" s="5">
-        <v>0</v>
-      </c>
-      <c r="E103" s="5">
-        <v>0</v>
-      </c>
-      <c r="F103" s="5">
-        <v>0</v>
-      </c>
-      <c r="G103" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>141</v>
-      </c>
-      <c r="B104" t="s">
-        <v>89</v>
-      </c>
-      <c r="C104" t="s">
-        <v>247</v>
-      </c>
-      <c r="D104" s="5">
-        <v>0</v>
-      </c>
-      <c r="E104" s="5">
-        <v>0</v>
-      </c>
-      <c r="F104" s="5">
-        <v>0</v>
-      </c>
-      <c r="G104" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>141</v>
-      </c>
-      <c r="B105" t="s">
-        <v>90</v>
-      </c>
-      <c r="C105" t="s">
-        <v>248</v>
-      </c>
-      <c r="D105" s="5">
-        <v>0</v>
-      </c>
-      <c r="E105" s="5">
-        <v>0</v>
-      </c>
-      <c r="F105" s="5">
-        <v>0</v>
-      </c>
-      <c r="G105" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>141</v>
-      </c>
-      <c r="B106" t="s">
-        <v>91</v>
-      </c>
-      <c r="C106" t="s">
-        <v>249</v>
-      </c>
-      <c r="D106" s="5">
-        <v>0</v>
-      </c>
-      <c r="E106" s="5">
-        <v>0</v>
-      </c>
-      <c r="F106" s="5">
-        <v>0</v>
-      </c>
-      <c r="G106" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>141</v>
-      </c>
-      <c r="B107" t="s">
-        <v>92</v>
-      </c>
-      <c r="C107" t="s">
-        <v>250</v>
-      </c>
-      <c r="D107" s="5">
-        <v>0</v>
-      </c>
-      <c r="E107" s="5">
-        <v>0</v>
-      </c>
-      <c r="F107" s="5">
-        <v>0</v>
-      </c>
-      <c r="G107" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>141</v>
-      </c>
-      <c r="B108" t="s">
-        <v>93</v>
-      </c>
-      <c r="C108" t="s">
-        <v>251</v>
-      </c>
-      <c r="D108" s="5">
-        <v>0</v>
-      </c>
-      <c r="E108" s="5">
-        <v>0</v>
-      </c>
-      <c r="F108" s="5">
-        <v>0</v>
-      </c>
-      <c r="G108" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>141</v>
-      </c>
-      <c r="B109" t="s">
-        <v>94</v>
-      </c>
-      <c r="C109" t="s">
-        <v>252</v>
-      </c>
-      <c r="D109" s="5">
-        <v>0</v>
-      </c>
-      <c r="E109" s="5">
-        <v>0</v>
-      </c>
-      <c r="F109" s="5">
-        <v>0</v>
-      </c>
-      <c r="G109" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>141</v>
-      </c>
-      <c r="B110" t="s">
-        <v>95</v>
-      </c>
-      <c r="C110" t="s">
-        <v>253</v>
-      </c>
-      <c r="D110" s="5">
-        <v>0</v>
-      </c>
-      <c r="E110" s="5">
-        <v>0</v>
-      </c>
-      <c r="F110" s="5">
-        <v>0</v>
-      </c>
-      <c r="G110" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>141</v>
-      </c>
-      <c r="B111" t="s">
-        <v>96</v>
-      </c>
-      <c r="C111" t="s">
-        <v>254</v>
-      </c>
-      <c r="D111" s="5">
-        <v>0</v>
-      </c>
-      <c r="E111" s="5">
-        <v>0</v>
-      </c>
-      <c r="F111" s="5">
-        <v>0</v>
-      </c>
-      <c r="G111" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>141</v>
-      </c>
-      <c r="B112" t="s">
-        <v>97</v>
-      </c>
-      <c r="C112" t="s">
-        <v>255</v>
-      </c>
-      <c r="D112" s="5">
-        <v>0</v>
-      </c>
-      <c r="E112" s="5">
-        <v>0</v>
-      </c>
-      <c r="F112" s="5">
-        <v>0</v>
-      </c>
-      <c r="G112" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>141</v>
-      </c>
-      <c r="B113" t="s">
-        <v>98</v>
-      </c>
-      <c r="C113" t="s">
-        <v>256</v>
-      </c>
-      <c r="D113" s="5">
-        <v>0</v>
-      </c>
-      <c r="E113" s="5">
-        <v>0</v>
-      </c>
-      <c r="F113" s="5">
-        <v>0</v>
-      </c>
-      <c r="G113" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>141</v>
-      </c>
-      <c r="B114" t="s">
-        <v>99</v>
-      </c>
-      <c r="C114" t="s">
-        <v>257</v>
-      </c>
-      <c r="D114" s="5">
-        <v>0</v>
-      </c>
-      <c r="E114" s="5">
-        <v>0</v>
-      </c>
-      <c r="F114" s="5">
-        <v>0</v>
-      </c>
-      <c r="G114" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>142</v>
-      </c>
-      <c r="B115" t="s">
-        <v>100</v>
-      </c>
-      <c r="C115" t="s">
-        <v>258</v>
-      </c>
-      <c r="D115" s="5">
-        <v>0</v>
-      </c>
-      <c r="E115" s="5">
-        <v>0</v>
-      </c>
-      <c r="F115" s="5">
-        <v>0</v>
-      </c>
-      <c r="G115" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>142</v>
-      </c>
-      <c r="B116" t="s">
-        <v>101</v>
-      </c>
-      <c r="C116" t="s">
-        <v>259</v>
-      </c>
-      <c r="D116" s="5">
-        <v>0</v>
-      </c>
-      <c r="E116" s="5">
-        <v>0</v>
-      </c>
-      <c r="F116" s="5">
-        <v>0</v>
-      </c>
-      <c r="G116" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>142</v>
-      </c>
-      <c r="B117" t="s">
-        <v>102</v>
-      </c>
-      <c r="C117" t="s">
-        <v>260</v>
-      </c>
-      <c r="D117" s="5">
-        <v>0</v>
-      </c>
-      <c r="E117" s="5">
-        <v>0</v>
-      </c>
-      <c r="F117" s="5">
-        <v>0</v>
-      </c>
-      <c r="G117" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>142</v>
-      </c>
-      <c r="B118" t="s">
-        <v>103</v>
-      </c>
-      <c r="C118" t="s">
-        <v>261</v>
-      </c>
-      <c r="D118" s="5">
-        <v>0</v>
-      </c>
-      <c r="E118" s="5">
-        <v>0</v>
-      </c>
-      <c r="F118" s="5">
-        <v>0</v>
-      </c>
-      <c r="G118" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>142</v>
-      </c>
-      <c r="B119" t="s">
-        <v>104</v>
-      </c>
-      <c r="C119" t="s">
-        <v>262</v>
-      </c>
-      <c r="D119" s="5">
-        <v>0</v>
-      </c>
-      <c r="E119" s="5">
-        <v>0</v>
-      </c>
-      <c r="F119" s="5">
-        <v>0</v>
-      </c>
-      <c r="G119" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>142</v>
-      </c>
-      <c r="B120" t="s">
-        <v>105</v>
-      </c>
-      <c r="C120" t="s">
-        <v>263</v>
-      </c>
-      <c r="D120" s="5">
-        <v>0</v>
-      </c>
-      <c r="E120" s="5">
-        <v>0</v>
-      </c>
-      <c r="F120" s="5">
-        <v>0</v>
-      </c>
-      <c r="G120" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>142</v>
-      </c>
-      <c r="B121" t="s">
-        <v>106</v>
-      </c>
-      <c r="C121" t="s">
-        <v>264</v>
-      </c>
-      <c r="D121" s="5">
-        <v>0</v>
-      </c>
-      <c r="E121" s="5">
-        <v>0</v>
-      </c>
-      <c r="F121" s="5">
-        <v>0</v>
-      </c>
-      <c r="G121" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>142</v>
-      </c>
-      <c r="B122" t="s">
-        <v>107</v>
-      </c>
-      <c r="C122" t="s">
-        <v>265</v>
-      </c>
-      <c r="D122" s="5">
-        <v>0</v>
-      </c>
-      <c r="E122" s="5">
-        <v>0</v>
-      </c>
-      <c r="F122" s="5">
-        <v>0</v>
-      </c>
-      <c r="G122" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>142</v>
-      </c>
-      <c r="B123" t="s">
-        <v>108</v>
-      </c>
-      <c r="C123" t="s">
-        <v>266</v>
-      </c>
-      <c r="D123" s="5">
-        <v>0</v>
-      </c>
-      <c r="E123" s="5">
-        <v>0</v>
-      </c>
-      <c r="F123" s="5">
-        <v>0</v>
-      </c>
-      <c r="G123" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>142</v>
-      </c>
-      <c r="B124" t="s">
-        <v>109</v>
-      </c>
-      <c r="C124" t="s">
-        <v>267</v>
-      </c>
-      <c r="D124" s="5">
-        <v>0</v>
-      </c>
-      <c r="E124" s="5">
-        <v>0</v>
-      </c>
-      <c r="F124" s="5">
-        <v>0</v>
-      </c>
-      <c r="G124" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>142</v>
-      </c>
-      <c r="B125" t="s">
-        <v>110</v>
-      </c>
-      <c r="C125" t="s">
-        <v>268</v>
-      </c>
-      <c r="D125" s="5">
-        <v>0</v>
-      </c>
-      <c r="E125" s="5">
-        <v>0</v>
-      </c>
-      <c r="F125" s="5">
-        <v>0</v>
-      </c>
-      <c r="G125" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>142</v>
-      </c>
-      <c r="B126" t="s">
-        <v>111</v>
-      </c>
-      <c r="C126" t="s">
-        <v>269</v>
-      </c>
-      <c r="D126" s="5">
-        <v>0</v>
-      </c>
-      <c r="E126" s="5">
-        <v>0</v>
-      </c>
-      <c r="F126" s="5">
-        <v>0</v>
-      </c>
-      <c r="G126" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>142</v>
-      </c>
-      <c r="B127" t="s">
-        <v>112</v>
-      </c>
-      <c r="C127" t="s">
-        <v>270</v>
-      </c>
-      <c r="D127" s="5">
-        <v>0</v>
-      </c>
-      <c r="E127" s="5">
-        <v>0</v>
-      </c>
-      <c r="F127" s="5">
-        <v>0</v>
-      </c>
-      <c r="G127" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>143</v>
-      </c>
       <c r="B128" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C128" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D128" s="5">
         <v>0</v>
@@ -4353,38 +4349,38 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="58" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="3"/>
+    <col min="7" max="7" width="8.81640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>311</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -4399,12 +4395,12 @@
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B3">
         <v>1.5</v>
@@ -4419,12 +4415,12 @@
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4439,12 +4435,12 @@
         <v>2</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B5" s="6">
         <v>2.38</v>
@@ -4459,12 +4455,12 @@
         <v>0</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B6" s="6">
         <v>2.38</v>
@@ -4479,12 +4475,12 @@
         <v>0</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4499,12 +4495,12 @@
         <v>3</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B8" s="6">
         <v>0</v>
@@ -4519,12 +4515,12 @@
         <v>3</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B9" s="6">
         <v>0</v>
@@ -4539,12 +4535,12 @@
         <v>3</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B10" s="6">
         <v>0</v>
@@ -4559,12 +4555,12 @@
         <v>3</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B11">
         <v>2.5</v>
@@ -4579,92 +4575,92 @@
         <v>1</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>141</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4676,42 +4672,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{722570F2-F373-4595-A465-34CE4EFAA6BB}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="62.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C2">
         <v>8</v>
@@ -4726,12 +4722,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4746,12 +4742,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C4">
         <v>1.7</v>
@@ -4766,12 +4762,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C5">
         <v>1.4</v>
@@ -4786,12 +4782,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -4806,12 +4802,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C7">
         <v>2.38</v>
@@ -4826,12 +4822,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -4846,12 +4842,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -4866,12 +4862,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B10" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C10">
         <v>2.5</v>
@@ -4886,12 +4882,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B11" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -4906,12 +4902,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
